--- a/Data TB/Data TB 987 record.xlsx
+++ b/Data TB/Data TB 987 record.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Kuliah\Kumpulan Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/achmadbauravindah/Home/datas_for_ai/Data TB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDFD561D-372C-45AF-9366-40929600EE53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6B58A6A-DF3D-A440-A55F-432B91D34ECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{19CE52EF-359F-48AF-B3DF-DFECEE3233D2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="29040" windowHeight="15840" xr2:uid="{19CE52EF-359F-48AF-B3DF-DFECEE3233D2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -320,12 +320,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -364,12 +370,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -689,21 +698,21 @@
   <dimension ref="A1:H986"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
-    <col min="7" max="7" width="30.85546875" customWidth="1"/>
-    <col min="8" max="8" width="32.140625" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
+    <col min="7" max="7" width="30.83203125" customWidth="1"/>
+    <col min="8" max="8" width="32.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -729,7 +738,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>17</v>
       </c>
@@ -755,7 +764,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>19</v>
       </c>
@@ -781,7 +790,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>37</v>
       </c>
@@ -807,7 +816,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>62</v>
       </c>
@@ -833,7 +842,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>25</v>
       </c>
@@ -859,7 +868,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>56</v>
       </c>
@@ -885,7 +894,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>31</v>
       </c>
@@ -911,7 +920,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>26</v>
       </c>
@@ -937,7 +946,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>50</v>
       </c>
@@ -963,7 +972,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>47</v>
       </c>
@@ -989,7 +998,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>57</v>
       </c>
@@ -1015,7 +1024,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>31</v>
       </c>
@@ -1041,7 +1050,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>33</v>
       </c>
@@ -1067,7 +1076,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>30</v>
       </c>
@@ -1093,7 +1102,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>27</v>
       </c>
@@ -1119,7 +1128,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>65</v>
       </c>
@@ -1145,7 +1154,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>60</v>
       </c>
@@ -1171,7 +1180,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>57</v>
       </c>
@@ -1197,7 +1206,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>66</v>
       </c>
@@ -1223,7 +1232,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>51</v>
       </c>
@@ -1249,7 +1258,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -1275,7 +1284,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>67</v>
       </c>
@@ -1301,7 +1310,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>47</v>
       </c>
@@ -1327,7 +1336,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>21</v>
       </c>
@@ -1353,7 +1362,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>55</v>
       </c>
@@ -1379,7 +1388,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>36</v>
       </c>
@@ -1405,7 +1414,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>58</v>
       </c>
@@ -1431,7 +1440,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>50</v>
       </c>
@@ -1457,7 +1466,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>52</v>
       </c>
@@ -1483,7 +1492,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>55</v>
       </c>
@@ -1509,7 +1518,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>46</v>
       </c>
@@ -1535,7 +1544,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>75</v>
       </c>
@@ -1561,7 +1570,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>55</v>
       </c>
@@ -1587,7 +1596,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>53</v>
       </c>
@@ -1613,7 +1622,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>49</v>
       </c>
@@ -1639,7 +1648,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>57</v>
       </c>
@@ -1665,7 +1674,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>31</v>
       </c>
@@ -1691,33 +1700,33 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
+    <row r="39" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
         <v>48</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39" s="2" t="s">
+      <c r="B39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39" s="2" t="s">
+      <c r="D39" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G39" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G39" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>27</v>
       </c>
@@ -1743,7 +1752,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>17</v>
       </c>
@@ -1769,7 +1778,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>49</v>
       </c>
@@ -1795,7 +1804,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>18</v>
       </c>
@@ -1821,7 +1830,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>18</v>
       </c>
@@ -1847,7 +1856,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>19</v>
       </c>
@@ -1873,7 +1882,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>24</v>
       </c>
@@ -1899,7 +1908,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>13</v>
       </c>
@@ -1925,7 +1934,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>14</v>
       </c>
@@ -1951,7 +1960,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>57</v>
       </c>
@@ -1977,7 +1986,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -2003,7 +2012,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>49</v>
       </c>
@@ -2029,7 +2038,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <v>35</v>
       </c>
@@ -2055,7 +2064,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <v>35</v>
       </c>
@@ -2081,7 +2090,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <v>60</v>
       </c>
@@ -2107,7 +2116,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -2133,7 +2142,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <v>52</v>
       </c>
@@ -2159,7 +2168,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <v>53</v>
       </c>
@@ -2185,7 +2194,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <v>49</v>
       </c>
@@ -2211,7 +2220,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <v>65</v>
       </c>
@@ -2237,7 +2246,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <v>49</v>
       </c>
@@ -2263,7 +2272,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <v>48</v>
       </c>
@@ -2289,7 +2298,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <v>44</v>
       </c>
@@ -2315,7 +2324,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <v>58</v>
       </c>
@@ -2341,7 +2350,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <v>64</v>
       </c>
@@ -2367,7 +2376,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <v>28</v>
       </c>
@@ -2393,7 +2402,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <v>64</v>
       </c>
@@ -2419,7 +2428,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <v>57</v>
       </c>
@@ -2445,7 +2454,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <v>34</v>
       </c>
@@ -2471,7 +2480,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <v>28</v>
       </c>
@@ -2497,7 +2506,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <v>49</v>
       </c>
@@ -2523,7 +2532,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <v>80</v>
       </c>
@@ -2549,7 +2558,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <v>48</v>
       </c>
@@ -2575,7 +2584,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <v>53</v>
       </c>
@@ -2601,7 +2610,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <v>48</v>
       </c>
@@ -2627,7 +2636,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <v>30</v>
       </c>
@@ -2653,7 +2662,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <v>34</v>
       </c>
@@ -2679,7 +2688,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <v>50</v>
       </c>
@@ -2705,7 +2714,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <v>46</v>
       </c>
@@ -2731,7 +2740,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <v>60</v>
       </c>
@@ -2757,7 +2766,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <v>55</v>
       </c>
@@ -2783,7 +2792,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <v>45</v>
       </c>
@@ -2809,7 +2818,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <v>64</v>
       </c>
@@ -2835,7 +2844,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <v>44</v>
       </c>
@@ -2861,7 +2870,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <v>49</v>
       </c>
@@ -2887,7 +2896,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <v>78</v>
       </c>
@@ -2913,7 +2922,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <v>60</v>
       </c>
@@ -2939,7 +2948,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <v>61</v>
       </c>
@@ -2965,7 +2974,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <v>66</v>
       </c>
@@ -2991,7 +3000,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <v>16</v>
       </c>
@@ -3017,7 +3026,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <v>53</v>
       </c>
@@ -3043,7 +3052,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <v>45</v>
       </c>
@@ -3069,7 +3078,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <v>57</v>
       </c>
@@ -3095,7 +3104,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <v>40</v>
       </c>
@@ -3121,7 +3130,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <v>56</v>
       </c>
@@ -3147,7 +3156,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <v>29</v>
       </c>
@@ -3173,7 +3182,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <v>64</v>
       </c>
@@ -3199,7 +3208,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <v>45</v>
       </c>
@@ -3225,7 +3234,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <v>49</v>
       </c>
@@ -3251,7 +3260,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <v>30</v>
       </c>
@@ -3277,7 +3286,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <v>21</v>
       </c>
@@ -3303,7 +3312,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <v>2</v>
       </c>
@@ -3329,7 +3338,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <v>66</v>
       </c>
@@ -3355,7 +3364,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <v>61</v>
       </c>
@@ -3381,7 +3390,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <v>17</v>
       </c>
@@ -3407,7 +3416,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <v>60</v>
       </c>
@@ -3433,7 +3442,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <v>51</v>
       </c>
@@ -3459,7 +3468,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <v>60</v>
       </c>
@@ -3485,7 +3494,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <v>46</v>
       </c>
@@ -3511,7 +3520,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <v>43</v>
       </c>
@@ -3537,7 +3546,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <v>1</v>
       </c>
@@ -3563,7 +3572,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <v>37</v>
       </c>
@@ -3589,7 +3598,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <v>14</v>
       </c>
@@ -3615,7 +3624,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <v>31</v>
       </c>
@@ -3641,7 +3650,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <v>16</v>
       </c>
@@ -3667,7 +3676,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <v>83</v>
       </c>
@@ -3693,7 +3702,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <v>18</v>
       </c>
@@ -3719,7 +3728,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <v>33</v>
       </c>
@@ -3745,7 +3754,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <v>74</v>
       </c>
@@ -3771,7 +3780,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <v>44</v>
       </c>
@@ -3797,7 +3806,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <v>13</v>
       </c>
@@ -3823,7 +3832,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <v>13</v>
       </c>
@@ -3849,7 +3858,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <v>20</v>
       </c>
@@ -3875,7 +3884,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <v>57</v>
       </c>
@@ -3901,7 +3910,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <v>17</v>
       </c>
@@ -3927,7 +3936,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <v>31</v>
       </c>
@@ -3953,7 +3962,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <v>69</v>
       </c>
@@ -3979,7 +3988,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <v>32</v>
       </c>
@@ -4005,7 +4014,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <v>47</v>
       </c>
@@ -4031,7 +4040,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <v>22</v>
       </c>
@@ -4057,7 +4066,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <v>42</v>
       </c>
@@ -4083,7 +4092,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <v>46</v>
       </c>
@@ -4109,7 +4118,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <v>76</v>
       </c>
@@ -4135,7 +4144,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="133" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <v>20</v>
       </c>
@@ -4161,7 +4170,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="134" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <v>43</v>
       </c>
@@ -4187,7 +4196,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="135" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <v>73</v>
       </c>
@@ -4213,7 +4222,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="136" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <v>42</v>
       </c>
@@ -4239,7 +4248,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="137" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <v>22</v>
       </c>
@@ -4265,7 +4274,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="138" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <v>24</v>
       </c>
@@ -4291,7 +4300,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="139" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <v>24</v>
       </c>
@@ -4317,7 +4326,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <v>63</v>
       </c>
@@ -4343,7 +4352,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <v>54</v>
       </c>
@@ -4369,7 +4378,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <v>59</v>
       </c>
@@ -4395,7 +4404,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <v>17</v>
       </c>
@@ -4421,7 +4430,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="144" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <v>43</v>
       </c>
@@ -4447,7 +4456,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>55</v>
       </c>
@@ -4473,7 +4482,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <v>27</v>
       </c>
@@ -4499,7 +4508,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <v>54</v>
       </c>
@@ -4525,7 +4534,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <v>50</v>
       </c>
@@ -4551,7 +4560,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="149" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <v>7</v>
       </c>
@@ -4577,7 +4586,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <v>10</v>
       </c>
@@ -4603,7 +4612,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <v>35</v>
       </c>
@@ -4629,7 +4638,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="152" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <v>18</v>
       </c>
@@ -4655,7 +4664,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <v>27</v>
       </c>
@@ -4681,7 +4690,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <v>39</v>
       </c>
@@ -4707,7 +4716,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <v>65</v>
       </c>
@@ -4733,7 +4742,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="156" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <v>51</v>
       </c>
@@ -4759,7 +4768,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="157" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <v>12</v>
       </c>
@@ -4785,7 +4794,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="158" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <v>54</v>
       </c>
@@ -4811,7 +4820,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="159" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <v>55</v>
       </c>
@@ -4837,7 +4846,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <v>57</v>
       </c>
@@ -4863,7 +4872,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <v>46</v>
       </c>
@@ -4889,7 +4898,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
         <v>56</v>
       </c>
@@ -4915,7 +4924,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="163" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
         <v>6</v>
       </c>
@@ -4941,7 +4950,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="164" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
         <v>31</v>
       </c>
@@ -4967,7 +4976,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="165" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
         <v>43</v>
       </c>
@@ -4993,7 +5002,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="166" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
         <v>48</v>
       </c>
@@ -5019,7 +5028,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
         <v>23</v>
       </c>
@@ -5045,7 +5054,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="168" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
         <v>53</v>
       </c>
@@ -5071,7 +5080,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
         <v>52</v>
       </c>
@@ -5097,7 +5106,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
         <v>47</v>
       </c>
@@ -5123,7 +5132,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
         <v>53</v>
       </c>
@@ -5149,7 +5158,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
         <v>45</v>
       </c>
@@ -5175,7 +5184,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
         <v>8</v>
       </c>
@@ -5201,7 +5210,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
         <v>19</v>
       </c>
@@ -5227,7 +5236,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
         <v>50</v>
       </c>
@@ -5253,7 +5262,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
         <v>53</v>
       </c>
@@ -5279,7 +5288,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
         <v>60</v>
       </c>
@@ -5305,7 +5314,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="178" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
         <v>32</v>
       </c>
@@ -5331,7 +5340,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="179" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
         <v>51</v>
       </c>
@@ -5357,7 +5366,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="180" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
         <v>24</v>
       </c>
@@ -5383,7 +5392,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
         <v>53</v>
       </c>
@@ -5409,7 +5418,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="182" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
         <v>60</v>
       </c>
@@ -5435,7 +5444,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="183" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
         <v>74</v>
       </c>
@@ -5461,7 +5470,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
         <v>42</v>
       </c>
@@ -5487,7 +5496,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
         <v>35</v>
       </c>
@@ -5513,7 +5522,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
         <v>60</v>
       </c>
@@ -5539,7 +5548,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
         <v>54</v>
       </c>
@@ -5565,7 +5574,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
         <v>54</v>
       </c>
@@ -5591,7 +5600,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="189" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
         <v>51</v>
       </c>
@@ -5617,7 +5626,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
         <v>28</v>
       </c>
@@ -5643,7 +5652,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
         <v>65</v>
       </c>
@@ -5669,7 +5678,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="192" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
         <v>41</v>
       </c>
@@ -5695,7 +5704,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="193" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
         <v>47</v>
       </c>
@@ -5721,7 +5730,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
         <v>45</v>
       </c>
@@ -5747,7 +5756,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="195" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
         <v>14</v>
       </c>
@@ -5773,7 +5782,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="196" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
         <v>22</v>
       </c>
@@ -5799,7 +5808,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="197" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
         <v>37</v>
       </c>
@@ -5825,7 +5834,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="198" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
         <v>36</v>
       </c>
@@ -5851,7 +5860,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="199" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
         <v>31</v>
       </c>
@@ -5877,7 +5886,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="200" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
         <v>45</v>
       </c>
@@ -5903,7 +5912,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="201" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
         <v>49</v>
       </c>
@@ -5929,7 +5938,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
         <v>79</v>
       </c>
@@ -5955,7 +5964,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="203" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
         <v>35</v>
       </c>
@@ -5981,7 +5990,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="204" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
         <v>25</v>
       </c>
@@ -6007,7 +6016,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="205" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
         <v>19</v>
       </c>
@@ -6033,7 +6042,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
         <v>17</v>
       </c>
@@ -6059,7 +6068,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="207" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
         <v>41</v>
       </c>
@@ -6085,7 +6094,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="208" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
         <v>60</v>
       </c>
@@ -6111,7 +6120,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="209" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
         <v>69</v>
       </c>
@@ -6137,7 +6146,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="210" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
         <v>70</v>
       </c>
@@ -6163,7 +6172,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="211" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
         <v>60</v>
       </c>
@@ -6189,7 +6198,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="212" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
         <v>50</v>
       </c>
@@ -6215,7 +6224,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="213" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
         <v>28</v>
       </c>
@@ -6241,7 +6250,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="214" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
         <v>22</v>
       </c>
@@ -6267,7 +6276,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="215" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
         <v>61</v>
       </c>
@@ -6293,7 +6302,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="216" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
         <v>45</v>
       </c>
@@ -6319,7 +6328,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="217" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
         <v>60</v>
       </c>
@@ -6345,7 +6354,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="218" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
         <v>60</v>
       </c>
@@ -6371,7 +6380,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="219" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
         <v>39</v>
       </c>
@@ -6397,7 +6406,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="220" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
         <v>61</v>
       </c>
@@ -6423,7 +6432,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="221" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="2">
         <v>20</v>
       </c>
@@ -6449,7 +6458,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="222" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="2">
         <v>47</v>
       </c>
@@ -6475,7 +6484,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="223" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="2">
         <v>55</v>
       </c>
@@ -6501,7 +6510,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="224" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="2">
         <v>33</v>
       </c>
@@ -6527,7 +6536,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="225" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="2">
         <v>41</v>
       </c>
@@ -6553,7 +6562,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="226" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="2">
         <v>47</v>
       </c>
@@ -6579,7 +6588,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="227" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
         <v>59</v>
       </c>
@@ -6605,7 +6614,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="228" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
         <v>67</v>
       </c>
@@ -6631,7 +6640,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="229" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
         <v>30</v>
       </c>
@@ -6657,7 +6666,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="230" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="2">
         <v>35</v>
       </c>
@@ -6683,7 +6692,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="231" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="2">
         <v>33</v>
       </c>
@@ -6709,7 +6718,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="232" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="2">
         <v>11</v>
       </c>
@@ -6735,7 +6744,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="233" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="2">
         <v>60</v>
       </c>
@@ -6761,7 +6770,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="234" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="2">
         <v>60</v>
       </c>
@@ -6787,7 +6796,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="235" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="2">
         <v>50</v>
       </c>
@@ -6813,7 +6822,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="236" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="2">
         <v>58</v>
       </c>
@@ -6839,7 +6848,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="237" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="2">
         <v>54</v>
       </c>
@@ -6865,7 +6874,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="238" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="2">
         <v>6</v>
       </c>
@@ -6891,7 +6900,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="239" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="2">
         <v>60</v>
       </c>
@@ -6917,7 +6926,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="240" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="2">
         <v>48</v>
       </c>
@@ -6943,7 +6952,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="241" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
         <v>25</v>
       </c>
@@ -6969,7 +6978,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="242" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="2">
         <v>53</v>
       </c>
@@ -6995,7 +7004,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="243" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="2">
         <v>50</v>
       </c>
@@ -7021,7 +7030,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="244" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
         <v>17</v>
       </c>
@@ -7047,7 +7056,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="245" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="2">
         <v>50</v>
       </c>
@@ -7073,7 +7082,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="246" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
         <v>1</v>
       </c>
@@ -7099,7 +7108,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="247" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="2">
         <v>51</v>
       </c>
@@ -7125,7 +7134,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="248" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="2">
         <v>56</v>
       </c>
@@ -7151,7 +7160,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="249" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="2">
         <v>54</v>
       </c>
@@ -7177,7 +7186,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="250" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
         <v>25</v>
       </c>
@@ -7203,7 +7212,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="251" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="2">
         <v>54</v>
       </c>
@@ -7229,7 +7238,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="252" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="2">
         <v>41</v>
       </c>
@@ -7255,7 +7264,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="253" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="2">
         <v>48</v>
       </c>
@@ -7281,7 +7290,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="254" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="2">
         <v>22</v>
       </c>
@@ -7307,7 +7316,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="255" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="2">
         <v>48</v>
       </c>
@@ -7333,7 +7342,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="256" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="2">
         <v>56</v>
       </c>
@@ -7359,7 +7368,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="257" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="2">
         <v>29</v>
       </c>
@@ -7385,7 +7394,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="258" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="2">
         <v>58</v>
       </c>
@@ -7411,7 +7420,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="259" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="2">
         <v>60</v>
       </c>
@@ -7437,7 +7446,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="260" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="2">
         <v>45</v>
       </c>
@@ -7463,7 +7472,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="261" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="2">
         <v>63</v>
       </c>
@@ -7489,7 +7498,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="262" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="2">
         <v>38</v>
       </c>
@@ -7515,7 +7524,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="263" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="2">
         <v>63</v>
       </c>
@@ -7541,7 +7550,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="264" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="2">
         <v>60</v>
       </c>
@@ -7567,7 +7576,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="265" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="2">
         <v>14</v>
       </c>
@@ -7593,7 +7602,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="266" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="2">
         <v>85</v>
       </c>
@@ -7619,7 +7628,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="267" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="2">
         <v>56</v>
       </c>
@@ -7645,7 +7654,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="268" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="2">
         <v>71</v>
       </c>
@@ -7671,7 +7680,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="269" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="2">
         <v>42</v>
       </c>
@@ -7697,7 +7706,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="270" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="2">
         <v>54</v>
       </c>
@@ -7723,7 +7732,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="271" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="2">
         <v>47</v>
       </c>
@@ -7749,7 +7758,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="272" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="2">
         <v>27</v>
       </c>
@@ -7775,7 +7784,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="273" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="2">
         <v>37</v>
       </c>
@@ -7801,7 +7810,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="274" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="2">
         <v>55</v>
       </c>
@@ -7827,7 +7836,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="275" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="2">
         <v>50</v>
       </c>
@@ -7853,7 +7862,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="276" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="2">
         <v>49</v>
       </c>
@@ -7879,7 +7888,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="277" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="2">
         <v>16</v>
       </c>
@@ -7905,7 +7914,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="278" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="2">
         <v>54</v>
       </c>
@@ -7931,7 +7940,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="279" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="2">
         <v>42</v>
       </c>
@@ -7957,7 +7966,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="280" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="2">
         <v>55</v>
       </c>
@@ -7983,7 +7992,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="281" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="2">
         <v>46</v>
       </c>
@@ -8009,7 +8018,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="282" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="2">
         <v>64</v>
       </c>
@@ -8035,7 +8044,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="283" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="2">
         <v>59</v>
       </c>
@@ -8061,7 +8070,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="284" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="2">
         <v>51</v>
       </c>
@@ -8087,7 +8096,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="285" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="2">
         <v>73</v>
       </c>
@@ -8113,7 +8122,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="286" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="2">
         <v>52</v>
       </c>
@@ -8139,7 +8148,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="287" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="2">
         <v>62</v>
       </c>
@@ -8165,7 +8174,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="288" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="2">
         <v>43</v>
       </c>
@@ -8191,7 +8200,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="289" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="2">
         <v>36</v>
       </c>
@@ -8217,7 +8226,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="290" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="2">
         <v>61</v>
       </c>
@@ -8243,7 +8252,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="291" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="2">
         <v>51</v>
       </c>
@@ -8269,7 +8278,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="292" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="2">
         <v>81</v>
       </c>
@@ -8295,7 +8304,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="293" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="2">
         <v>48</v>
       </c>
@@ -8321,7 +8330,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="294" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="2">
         <v>61</v>
       </c>
@@ -8347,7 +8356,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="295" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="2">
         <v>64</v>
       </c>
@@ -8373,7 +8382,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="296" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="2">
         <v>52</v>
       </c>
@@ -8399,7 +8408,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="297" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="2">
         <v>52</v>
       </c>
@@ -8425,7 +8434,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="298" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="2">
         <v>24</v>
       </c>
@@ -8451,7 +8460,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="299" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="2">
         <v>36</v>
       </c>
@@ -8477,7 +8486,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="300" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="2">
         <v>20</v>
       </c>
@@ -8503,7 +8512,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="301" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="2">
         <v>12</v>
       </c>
@@ -8529,7 +8538,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="302" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="2">
         <v>1</v>
       </c>
@@ -8555,7 +8564,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="303" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="2">
         <v>5</v>
       </c>
@@ -8581,7 +8590,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="304" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="2">
         <v>1</v>
       </c>
@@ -8607,7 +8616,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="305" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="2">
         <v>13</v>
       </c>
@@ -8633,7 +8642,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="306" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="2">
         <v>12</v>
       </c>
@@ -8659,7 +8668,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="307" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="2">
         <v>54</v>
       </c>
@@ -8685,7 +8694,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="308" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="2">
         <v>58</v>
       </c>
@@ -8711,7 +8720,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="309" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="2">
         <v>46</v>
       </c>
@@ -8737,7 +8746,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="310" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="2">
         <v>54</v>
       </c>
@@ -8763,7 +8772,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="311" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="2">
         <v>57</v>
       </c>
@@ -8789,7 +8798,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="312" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="2">
         <v>51</v>
       </c>
@@ -8815,7 +8824,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="313" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="2">
         <v>35</v>
       </c>
@@ -8841,7 +8850,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="314" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="2">
         <v>28</v>
       </c>
@@ -8867,7 +8876,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="315" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="2">
         <v>55</v>
       </c>
@@ -8893,7 +8902,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="316" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="2">
         <v>23</v>
       </c>
@@ -8919,7 +8928,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="317" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="2">
         <v>60</v>
       </c>
@@ -8945,7 +8954,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="318" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="2">
         <v>58</v>
       </c>
@@ -8971,7 +8980,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="319" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="2">
         <v>47</v>
       </c>
@@ -8997,7 +9006,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="320" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="2">
         <v>55</v>
       </c>
@@ -9023,7 +9032,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="321" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="2">
         <v>55</v>
       </c>
@@ -9049,7 +9058,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="322" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="2">
         <v>51</v>
       </c>
@@ -9075,7 +9084,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="323" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="2">
         <v>28</v>
       </c>
@@ -9101,7 +9110,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="324" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="2">
         <v>53</v>
       </c>
@@ -9127,7 +9136,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="325" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="2">
         <v>4</v>
       </c>
@@ -9153,7 +9162,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="326" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="2">
         <v>68</v>
       </c>
@@ -9179,7 +9188,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="327" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="2">
         <v>69</v>
       </c>
@@ -9205,7 +9214,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="328" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="2">
         <v>61</v>
       </c>
@@ -9231,7 +9240,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="329" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="2">
         <v>28</v>
       </c>
@@ -9257,7 +9266,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="330" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="2">
         <v>33</v>
       </c>
@@ -9283,7 +9292,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="331" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="2">
         <v>35</v>
       </c>
@@ -9309,7 +9318,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="332" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="2">
         <v>50</v>
       </c>
@@ -9335,7 +9344,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="333" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="2">
         <v>35</v>
       </c>
@@ -9361,7 +9370,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="334" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="2">
         <v>57</v>
       </c>
@@ -9387,7 +9396,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="335" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="2">
         <v>48</v>
       </c>
@@ -9413,7 +9422,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="336" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="2">
         <v>51</v>
       </c>
@@ -9439,7 +9448,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="337" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="2">
         <v>75</v>
       </c>
@@ -9465,7 +9474,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="338" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="2">
         <v>57</v>
       </c>
@@ -9491,7 +9500,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="339" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="2">
         <v>37</v>
       </c>
@@ -9517,7 +9526,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="340" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="2">
         <v>60</v>
       </c>
@@ -9543,7 +9552,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="341" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="2">
         <v>48</v>
       </c>
@@ -9569,7 +9578,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="342" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="2">
         <v>66</v>
       </c>
@@ -9595,7 +9604,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="343" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="2">
         <v>68</v>
       </c>
@@ -9621,7 +9630,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="344" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="2">
         <v>49</v>
       </c>
@@ -9647,7 +9656,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="345" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="2">
         <v>41</v>
       </c>
@@ -9673,7 +9682,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="346" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="2">
         <v>51</v>
       </c>
@@ -9699,7 +9708,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="347" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="2">
         <v>61</v>
       </c>
@@ -9725,7 +9734,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="348" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="2">
         <v>62</v>
       </c>
@@ -9751,7 +9760,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="349" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="2">
         <v>33</v>
       </c>
@@ -9777,7 +9786,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="350" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="2">
         <v>45</v>
       </c>
@@ -9803,7 +9812,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="351" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="2">
         <v>53</v>
       </c>
@@ -9829,7 +9838,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="352" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="2">
         <v>30</v>
       </c>
@@ -9855,7 +9864,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="353" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="2">
         <v>33</v>
       </c>
@@ -9881,7 +9890,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="354" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="2">
         <v>21</v>
       </c>
@@ -9907,7 +9916,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="355" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="2">
         <v>25</v>
       </c>
@@ -9933,7 +9942,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="356" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="2">
         <v>66</v>
       </c>
@@ -9959,7 +9968,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="357" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="2">
         <v>58</v>
       </c>
@@ -9985,7 +9994,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="358" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="2">
         <v>55</v>
       </c>
@@ -10011,7 +10020,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="359" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="2">
         <v>43</v>
       </c>
@@ -10037,7 +10046,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="360" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="2">
         <v>38</v>
       </c>
@@ -10063,7 +10072,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="361" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="2">
         <v>71</v>
       </c>
@@ -10089,7 +10098,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="362" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="2">
         <v>68</v>
       </c>
@@ -10115,7 +10124,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="363" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="2">
         <v>25</v>
       </c>
@@ -10141,7 +10150,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="364" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="2">
         <v>48</v>
       </c>
@@ -10167,7 +10176,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="365" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="2">
         <v>39</v>
       </c>
@@ -10193,7 +10202,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="366" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="2">
         <v>58</v>
       </c>
@@ -10219,7 +10228,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="367" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="2">
         <v>49</v>
       </c>
@@ -10245,7 +10254,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="368" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="2">
         <v>19</v>
       </c>
@@ -10271,7 +10280,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="369" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="2">
         <v>32</v>
       </c>
@@ -10297,7 +10306,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="370" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="2">
         <v>30</v>
       </c>
@@ -10323,7 +10332,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="371" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="2">
         <v>51</v>
       </c>
@@ -10349,7 +10358,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="372" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="2">
         <v>30</v>
       </c>
@@ -10375,7 +10384,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="373" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="2">
         <v>29</v>
       </c>
@@ -10401,7 +10410,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="374" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="2">
         <v>17</v>
       </c>
@@ -10427,7 +10436,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="375" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="2">
         <v>42</v>
       </c>
@@ -10453,7 +10462,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="376" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="2">
         <v>66</v>
       </c>
@@ -10479,7 +10488,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="377" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="2">
         <v>59</v>
       </c>
@@ -10505,7 +10514,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="378" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="2">
         <v>50</v>
       </c>
@@ -10531,7 +10540,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="379" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="2">
         <v>65</v>
       </c>
@@ -10557,7 +10566,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="380" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="2">
         <v>33</v>
       </c>
@@ -10583,7 +10592,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="381" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="2">
         <v>59</v>
       </c>
@@ -10609,7 +10618,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="382" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="2">
         <v>50</v>
       </c>
@@ -10635,7 +10644,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="383" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="2">
         <v>46</v>
       </c>
@@ -10661,7 +10670,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="384" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="2">
         <v>50</v>
       </c>
@@ -10687,7 +10696,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="385" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="2">
         <v>58</v>
       </c>
@@ -10713,7 +10722,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="386" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="2">
         <v>49</v>
       </c>
@@ -10739,7 +10748,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="387" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="2">
         <v>19</v>
       </c>
@@ -10765,7 +10774,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="388" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="2">
         <v>48</v>
       </c>
@@ -10791,7 +10800,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="389" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="2">
         <v>64</v>
       </c>
@@ -10817,7 +10826,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="390" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="2">
         <v>54</v>
       </c>
@@ -10843,7 +10852,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="391" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="2">
         <v>38</v>
       </c>
@@ -10869,7 +10878,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="392" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="2">
         <v>66</v>
       </c>
@@ -10895,7 +10904,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="393" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="2">
         <v>83</v>
       </c>
@@ -10921,7 +10930,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="394" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="2">
         <v>64</v>
       </c>
@@ -10947,7 +10956,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="395" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="2">
         <v>35</v>
       </c>
@@ -10973,7 +10982,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="396" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="2">
         <v>77</v>
       </c>
@@ -10999,7 +11008,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="397" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="2">
         <v>22</v>
       </c>
@@ -11025,7 +11034,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="398" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="2">
         <v>27</v>
       </c>
@@ -11051,7 +11060,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="399" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="2">
         <v>58</v>
       </c>
@@ -11077,7 +11086,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="400" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="2">
         <v>27</v>
       </c>
@@ -11103,7 +11112,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="401" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="2">
         <v>70</v>
       </c>
@@ -11129,7 +11138,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="402" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="2">
         <v>44</v>
       </c>
@@ -11155,7 +11164,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="403" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="2">
         <v>55</v>
       </c>
@@ -11181,7 +11190,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="404" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="2">
         <v>81</v>
       </c>
@@ -11207,7 +11216,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="405" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="2">
         <v>45</v>
       </c>
@@ -11233,7 +11242,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="406" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="2">
         <v>21</v>
       </c>
@@ -11259,7 +11268,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="407" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="2">
         <v>50</v>
       </c>
@@ -11285,7 +11294,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="408" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="2">
         <v>33</v>
       </c>
@@ -11311,7 +11320,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="409" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="2">
         <v>1</v>
       </c>
@@ -11337,7 +11346,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="410" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="2">
         <v>68</v>
       </c>
@@ -11363,7 +11372,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="411" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="2">
         <v>51</v>
       </c>
@@ -11389,7 +11398,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="412" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="2">
         <v>63</v>
       </c>
@@ -11415,7 +11424,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="413" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" s="2">
         <v>24</v>
       </c>
@@ -11441,7 +11450,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="414" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="2">
         <v>13</v>
       </c>
@@ -11467,7 +11476,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="415" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="2">
         <v>57</v>
       </c>
@@ -11493,7 +11502,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="416" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="2">
         <v>1</v>
       </c>
@@ -11519,7 +11528,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="417" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="2">
         <v>17</v>
       </c>
@@ -11545,7 +11554,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="418" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="2">
         <v>14</v>
       </c>
@@ -11571,7 +11580,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="419" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="2">
         <v>28</v>
       </c>
@@ -11597,7 +11606,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="420" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="2">
         <v>44</v>
       </c>
@@ -11623,7 +11632,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="421" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" s="2">
         <v>44</v>
       </c>
@@ -11649,7 +11658,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="422" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="2">
         <v>36</v>
       </c>
@@ -11675,7 +11684,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="423" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="2">
         <v>47</v>
       </c>
@@ -11701,7 +11710,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="424" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424" s="2">
         <v>55</v>
       </c>
@@ -11727,7 +11736,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="425" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" s="2">
         <v>30</v>
       </c>
@@ -11753,7 +11762,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="426" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" s="2">
         <v>62</v>
       </c>
@@ -11779,7 +11788,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="427" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="2">
         <v>59</v>
       </c>
@@ -11805,7 +11814,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="428" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="2">
         <v>57</v>
       </c>
@@ -11831,7 +11840,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="429" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="2">
         <v>59</v>
       </c>
@@ -11857,7 +11866,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="430" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="2">
         <v>76</v>
       </c>
@@ -11883,7 +11892,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="431" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="2">
         <v>60</v>
       </c>
@@ -11909,7 +11918,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="432" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="2">
         <v>38</v>
       </c>
@@ -11935,7 +11944,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="433" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="2">
         <v>21</v>
       </c>
@@ -11961,7 +11970,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="434" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="2">
         <v>68</v>
       </c>
@@ -11987,7 +11996,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="435" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="2">
         <v>58</v>
       </c>
@@ -12013,7 +12022,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="436" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" s="2">
         <v>51</v>
       </c>
@@ -12039,7 +12048,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="437" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" s="2">
         <v>58</v>
       </c>
@@ -12065,7 +12074,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="438" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="2">
         <v>20</v>
       </c>
@@ -12091,7 +12100,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="439" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="2">
         <v>36</v>
       </c>
@@ -12117,7 +12126,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="440" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="2">
         <v>61</v>
       </c>
@@ -12143,7 +12152,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="441" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="2">
         <v>65</v>
       </c>
@@ -12169,7 +12178,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="442" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="2">
         <v>19</v>
       </c>
@@ -12195,7 +12204,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="443" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="2">
         <v>21</v>
       </c>
@@ -12221,7 +12230,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="444" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="2">
         <v>33</v>
       </c>
@@ -12247,7 +12256,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="445" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="2">
         <v>53</v>
       </c>
@@ -12273,7 +12282,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="446" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="2">
         <v>43</v>
       </c>
@@ -12299,7 +12308,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="447" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="2">
         <v>57</v>
       </c>
@@ -12325,7 +12334,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="448" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="2">
         <v>1</v>
       </c>
@@ -12351,7 +12360,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="449" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" s="2">
         <v>49</v>
       </c>
@@ -12377,7 +12386,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="450" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" s="2">
         <v>15</v>
       </c>
@@ -12403,7 +12412,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="451" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A451" s="2">
         <v>46</v>
       </c>
@@ -12429,7 +12438,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="452" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" s="2">
         <v>49</v>
       </c>
@@ -12455,7 +12464,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="453" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" s="2">
         <v>63</v>
       </c>
@@ -12481,7 +12490,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="454" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A454" s="2">
         <v>32</v>
       </c>
@@ -12507,7 +12516,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="455" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" s="2">
         <v>54</v>
       </c>
@@ -12533,7 +12542,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="456" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A456" s="2">
         <v>55</v>
       </c>
@@ -12559,7 +12568,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="457" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" s="2">
         <v>52</v>
       </c>
@@ -12585,7 +12594,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="458" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A458" s="2">
         <v>38</v>
       </c>
@@ -12611,7 +12620,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="459" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" s="2">
         <v>25</v>
       </c>
@@ -12637,7 +12646,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="460" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" s="2">
         <v>23</v>
       </c>
@@ -12663,7 +12672,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="461" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="2">
         <v>47</v>
       </c>
@@ -12689,7 +12698,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="462" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" s="2">
         <v>56</v>
       </c>
@@ -12715,7 +12724,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="463" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" s="2">
         <v>35</v>
       </c>
@@ -12741,7 +12750,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="464" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="2">
         <v>47</v>
       </c>
@@ -12767,7 +12776,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="465" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="2">
         <v>26</v>
       </c>
@@ -12793,7 +12802,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="466" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" s="2">
         <v>64</v>
       </c>
@@ -12819,7 +12828,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="467" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" s="2">
         <v>37</v>
       </c>
@@ -12845,7 +12854,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="468" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" s="2">
         <v>40</v>
       </c>
@@ -12871,7 +12880,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="469" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="2">
         <v>33</v>
       </c>
@@ -12897,7 +12906,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="470" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A470" s="2">
         <v>21</v>
       </c>
@@ -12923,7 +12932,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="471" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" s="2">
         <v>49</v>
       </c>
@@ -12949,7 +12958,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="472" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" s="2">
         <v>50</v>
       </c>
@@ -12975,7 +12984,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="473" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A473" s="2">
         <v>41</v>
       </c>
@@ -13001,7 +13010,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="474" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A474" s="2">
         <v>63</v>
       </c>
@@ -13027,7 +13036,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="475" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A475" s="2">
         <v>45</v>
       </c>
@@ -13053,7 +13062,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="476" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A476" s="2">
         <v>27</v>
       </c>
@@ -13079,7 +13088,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="477" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A477" s="2">
         <v>60</v>
       </c>
@@ -13105,7 +13114,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="478" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A478" s="2">
         <v>18</v>
       </c>
@@ -13131,7 +13140,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="479" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A479" s="2">
         <v>15</v>
       </c>
@@ -13157,7 +13166,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="480" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" s="2">
         <v>64</v>
       </c>
@@ -13183,7 +13192,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="481" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="2">
         <v>16</v>
       </c>
@@ -13209,7 +13218,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="482" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="2">
         <v>27</v>
       </c>
@@ -13235,7 +13244,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="483" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="2">
         <v>25</v>
       </c>
@@ -13261,7 +13270,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="484" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="2">
         <v>8</v>
       </c>
@@ -13287,7 +13296,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="485" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="2">
         <v>38</v>
       </c>
@@ -13313,7 +13322,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="486" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" s="2">
         <v>1</v>
       </c>
@@ -13339,7 +13348,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="487" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="2">
         <v>78</v>
       </c>
@@ -13365,7 +13374,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="488" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="2">
         <v>28</v>
       </c>
@@ -13391,7 +13400,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="489" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="2">
         <v>56</v>
       </c>
@@ -13417,7 +13426,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="490" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A490" s="2">
         <v>58</v>
       </c>
@@ -13443,7 +13452,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="491" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" s="2">
         <v>69</v>
       </c>
@@ -13469,7 +13478,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="492" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A492" s="2">
         <v>82</v>
       </c>
@@ -13495,7 +13504,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="493" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A493" s="2">
         <v>63</v>
       </c>
@@ -13521,7 +13530,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="494" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A494" s="2">
         <v>47</v>
       </c>
@@ -13547,7 +13556,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="495" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="2">
         <v>40</v>
       </c>
@@ -13573,7 +13582,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="496" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="2">
         <v>22</v>
       </c>
@@ -13599,7 +13608,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="497" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A497" s="2">
         <v>34</v>
       </c>
@@ -13625,7 +13634,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="498" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A498" s="2">
         <v>76</v>
       </c>
@@ -13651,7 +13660,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="499" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" s="2">
         <v>55</v>
       </c>
@@ -13677,7 +13686,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="500" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="2">
         <v>52</v>
       </c>
@@ -13703,7 +13712,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="501" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A501" s="2">
         <v>54</v>
       </c>
@@ -13729,7 +13738,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="502" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A502" s="2">
         <v>35</v>
       </c>
@@ -13755,7 +13764,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="503" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A503" s="2">
         <v>75</v>
       </c>
@@ -13781,7 +13790,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="504" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A504" s="2">
         <v>41</v>
       </c>
@@ -13807,7 +13816,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="505" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A505" s="2">
         <v>55</v>
       </c>
@@ -13833,7 +13842,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="506" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A506" s="2">
         <v>35</v>
       </c>
@@ -13859,7 +13868,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="507" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A507" s="2">
         <v>24</v>
       </c>
@@ -13885,7 +13894,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="508" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A508" s="2">
         <v>70</v>
       </c>
@@ -13911,7 +13920,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="509" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A509" s="2">
         <v>72</v>
       </c>
@@ -13937,7 +13946,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="510" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A510" s="2">
         <v>33</v>
       </c>
@@ -13963,7 +13972,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="511" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A511" s="2">
         <v>56</v>
       </c>
@@ -13989,7 +13998,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="512" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A512" s="2">
         <v>42</v>
       </c>
@@ -14015,7 +14024,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="513" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A513" s="2">
         <v>58</v>
       </c>
@@ -14041,7 +14050,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="514" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A514" s="2">
         <v>22</v>
       </c>
@@ -14067,7 +14076,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="515" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A515" s="2">
         <v>43</v>
       </c>
@@ -14093,7 +14102,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="516" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A516" s="2">
         <v>52</v>
       </c>
@@ -14119,7 +14128,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="517" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A517" s="2">
         <v>60</v>
       </c>
@@ -14145,7 +14154,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="518" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A518" s="2">
         <v>50</v>
       </c>
@@ -14171,7 +14180,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="519" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A519" s="2">
         <v>78</v>
       </c>
@@ -14197,7 +14206,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="520" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A520" s="2">
         <v>16</v>
       </c>
@@ -14223,7 +14232,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="521" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A521" s="2">
         <v>51</v>
       </c>
@@ -14249,7 +14258,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="522" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A522" s="2">
         <v>30</v>
       </c>
@@ -14275,7 +14284,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="523" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A523" s="2">
         <v>48</v>
       </c>
@@ -14301,7 +14310,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="524" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A524" s="2">
         <v>31</v>
       </c>
@@ -14327,7 +14336,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="525" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A525" s="2">
         <v>39</v>
       </c>
@@ -14353,7 +14362,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="526" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A526" s="2">
         <v>6</v>
       </c>
@@ -14379,7 +14388,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="527" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A527" s="2">
         <v>52</v>
       </c>
@@ -14405,7 +14414,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="528" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A528" s="2">
         <v>25</v>
       </c>
@@ -14431,7 +14440,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="529" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A529" s="2">
         <v>73</v>
       </c>
@@ -14457,7 +14466,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="530" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A530" s="2">
         <v>16</v>
       </c>
@@ -14483,7 +14492,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="531" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A531" s="2">
         <v>40</v>
       </c>
@@ -14509,7 +14518,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="532" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A532" s="2">
         <v>40</v>
       </c>
@@ -14535,7 +14544,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="533" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A533" s="2">
         <v>71</v>
       </c>
@@ -14561,7 +14570,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="534" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A534" s="2">
         <v>62</v>
       </c>
@@ -14587,7 +14596,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="535" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A535" s="2">
         <v>73</v>
       </c>
@@ -14613,7 +14622,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="536" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A536" s="2">
         <v>45</v>
       </c>
@@ -14639,7 +14648,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="537" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A537" s="2">
         <v>7</v>
       </c>
@@ -14665,7 +14674,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="538" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A538" s="2">
         <v>32</v>
       </c>
@@ -14691,7 +14700,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="539" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A539" s="2">
         <v>18</v>
       </c>
@@ -14717,7 +14726,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="540" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A540" s="2">
         <v>26</v>
       </c>
@@ -14743,7 +14752,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="541" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A541" s="2">
         <v>52</v>
       </c>
@@ -14769,7 +14778,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="542" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A542" s="2">
         <v>60</v>
       </c>
@@ -14795,7 +14804,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="543" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A543" s="2">
         <v>50</v>
       </c>
@@ -14821,7 +14830,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="544" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A544" s="2">
         <v>65</v>
       </c>
@@ -14847,7 +14856,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="545" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A545" s="2">
         <v>42</v>
       </c>
@@ -14873,7 +14882,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="546" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A546" s="2">
         <v>61</v>
       </c>
@@ -14899,7 +14908,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="547" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A547" s="2">
         <v>53</v>
       </c>
@@ -14925,7 +14934,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="548" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A548" s="2">
         <v>42</v>
       </c>
@@ -14951,7 +14960,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="549" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A549" s="2">
         <v>15</v>
       </c>
@@ -14977,7 +14986,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="550" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A550" s="2">
         <v>45</v>
       </c>
@@ -15003,7 +15012,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="551" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A551" s="2">
         <v>41</v>
       </c>
@@ -15029,7 +15038,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="552" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A552" s="2">
         <v>5</v>
       </c>
@@ -15055,7 +15064,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="553" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A553" s="2">
         <v>16</v>
       </c>
@@ -15081,7 +15090,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="554" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A554" s="2">
         <v>59</v>
       </c>
@@ -15107,7 +15116,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="555" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A555" s="2">
         <v>65</v>
       </c>
@@ -15133,7 +15142,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="556" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A556" s="2">
         <v>38</v>
       </c>
@@ -15159,7 +15168,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="557" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A557" s="2">
         <v>36</v>
       </c>
@@ -15185,7 +15194,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="558" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A558" s="2">
         <v>59</v>
       </c>
@@ -15211,7 +15220,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="559" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A559" s="2">
         <v>91</v>
       </c>
@@ -15237,7 +15246,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="560" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A560" s="2">
         <v>49</v>
       </c>
@@ -15263,7 +15272,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="561" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A561" s="2">
         <v>57</v>
       </c>
@@ -15289,7 +15298,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="562" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A562" s="2">
         <v>16</v>
       </c>
@@ -15315,7 +15324,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="563" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A563" s="2">
         <v>36</v>
       </c>
@@ -15341,7 +15350,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="564" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A564" s="2">
         <v>43</v>
       </c>
@@ -15367,7 +15376,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="565" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A565" s="2">
         <v>72</v>
       </c>
@@ -15393,7 +15402,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="566" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A566" s="2">
         <v>76</v>
       </c>
@@ -15419,7 +15428,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="567" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A567" s="2">
         <v>59</v>
       </c>
@@ -15445,7 +15454,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="568" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A568" s="2">
         <v>33</v>
       </c>
@@ -15471,7 +15480,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="569" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A569" s="2">
         <v>67</v>
       </c>
@@ -15497,7 +15506,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="570" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A570" s="2">
         <v>26</v>
       </c>
@@ -15523,7 +15532,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="571" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A571" s="2">
         <v>65</v>
       </c>
@@ -15549,7 +15558,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="572" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A572" s="2">
         <v>30</v>
       </c>
@@ -15575,7 +15584,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="573" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A573" s="2">
         <v>63</v>
       </c>
@@ -15601,7 +15610,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="574" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A574" s="2">
         <v>60</v>
       </c>
@@ -15627,7 +15636,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="575" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A575" s="2">
         <v>56</v>
       </c>
@@ -15653,7 +15662,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="576" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A576" s="2">
         <v>30</v>
       </c>
@@ -15679,7 +15688,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="577" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A577" s="2">
         <v>57</v>
       </c>
@@ -15705,7 +15714,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="578" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A578" s="2">
         <v>44</v>
       </c>
@@ -15731,7 +15740,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="579" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A579" s="2">
         <v>56</v>
       </c>
@@ -15757,7 +15766,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="580" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A580" s="2">
         <v>20</v>
       </c>
@@ -15783,7 +15792,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="581" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A581" s="2">
         <v>70</v>
       </c>
@@ -15809,7 +15818,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="582" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A582" s="2">
         <v>55</v>
       </c>
@@ -15835,7 +15844,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="583" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A583" s="2">
         <v>57</v>
       </c>
@@ -15861,7 +15870,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="584" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A584" s="2">
         <v>61</v>
       </c>
@@ -15887,7 +15896,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="585" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A585" s="2">
         <v>55</v>
       </c>
@@ -15913,7 +15922,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="586" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A586" s="2">
         <v>57</v>
       </c>
@@ -15939,7 +15948,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="587" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A587" s="2">
         <v>65</v>
       </c>
@@ -15965,7 +15974,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="588" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A588" s="2">
         <v>51</v>
       </c>
@@ -15991,7 +16000,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="589" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A589" s="2">
         <v>33</v>
       </c>
@@ -16017,7 +16026,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="590" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A590" s="2">
         <v>31</v>
       </c>
@@ -16043,7 +16052,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="591" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A591" s="2">
         <v>63</v>
       </c>
@@ -16069,7 +16078,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="592" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A592" s="2">
         <v>30</v>
       </c>
@@ -16095,7 +16104,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="593" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A593" s="2">
         <v>32</v>
       </c>
@@ -16121,7 +16130,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="594" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A594" s="2">
         <v>43</v>
       </c>
@@ -16147,7 +16156,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="595" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A595" s="2">
         <v>22</v>
       </c>
@@ -16173,7 +16182,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="596" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A596" s="2">
         <v>61</v>
       </c>
@@ -16199,7 +16208,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="597" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A597" s="2">
         <v>42</v>
       </c>
@@ -16225,7 +16234,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="598" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A598" s="2">
         <v>45</v>
       </c>
@@ -16251,7 +16260,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="599" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A599" s="2">
         <v>73</v>
       </c>
@@ -16277,7 +16286,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="600" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A600" s="2">
         <v>66</v>
       </c>
@@ -16303,7 +16312,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="601" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A601" s="2">
         <v>23</v>
       </c>
@@ -16329,7 +16338,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="602" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A602" s="2">
         <v>51</v>
       </c>
@@ -16355,7 +16364,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="603" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A603" s="2">
         <v>36</v>
       </c>
@@ -16381,7 +16390,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="604" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A604" s="2">
         <v>58</v>
       </c>
@@ -16407,7 +16416,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="605" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A605" s="2">
         <v>64</v>
       </c>
@@ -16433,7 +16442,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="606" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A606" s="2">
         <v>25</v>
       </c>
@@ -16459,7 +16468,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="607" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A607" s="2">
         <v>54</v>
       </c>
@@ -16485,7 +16494,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="608" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A608" s="2">
         <v>37</v>
       </c>
@@ -16511,7 +16520,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="609" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A609" s="2">
         <v>13</v>
       </c>
@@ -16537,7 +16546,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="610" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A610" s="2">
         <v>45</v>
       </c>
@@ -16563,7 +16572,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="611" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A611" s="2">
         <v>39</v>
       </c>
@@ -16589,7 +16598,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="612" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A612" s="2">
         <v>48</v>
       </c>
@@ -16615,7 +16624,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="613" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A613" s="2">
         <v>52</v>
       </c>
@@ -16641,7 +16650,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="614" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A614" s="2">
         <v>56</v>
       </c>
@@ -16667,7 +16676,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="615" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A615" s="2">
         <v>58</v>
       </c>
@@ -16693,7 +16702,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="616" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A616" s="2">
         <v>70</v>
       </c>
@@ -16719,7 +16728,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="617" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A617" s="2">
         <v>46</v>
       </c>
@@ -16745,7 +16754,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="618" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A618" s="2">
         <v>67</v>
       </c>
@@ -16771,7 +16780,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="619" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A619" s="2">
         <v>53</v>
       </c>
@@ -16797,7 +16806,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="620" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A620" s="2">
         <v>44</v>
       </c>
@@ -16823,7 +16832,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="621" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A621" s="2">
         <v>55</v>
       </c>
@@ -16849,7 +16858,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="622" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A622" s="2">
         <v>61</v>
       </c>
@@ -16875,7 +16884,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="623" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A623" s="2">
         <v>56</v>
       </c>
@@ -16901,7 +16910,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="624" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A624" s="2">
         <v>24</v>
       </c>
@@ -16927,7 +16936,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="625" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A625" s="2">
         <v>51</v>
       </c>
@@ -16953,7 +16962,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="626" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A626" s="2">
         <v>56</v>
       </c>
@@ -16979,7 +16988,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="627" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A627" s="2">
         <v>74</v>
       </c>
@@ -17005,7 +17014,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="628" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A628" s="2">
         <v>32</v>
       </c>
@@ -17031,7 +17040,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="629" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A629" s="2">
         <v>29</v>
       </c>
@@ -17057,7 +17066,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="630" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A630" s="2">
         <v>40</v>
       </c>
@@ -17083,7 +17092,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="631" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A631" s="2">
         <v>26</v>
       </c>
@@ -17109,7 +17118,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="632" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A632" s="2">
         <v>23</v>
       </c>
@@ -17135,7 +17144,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="633" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A633" s="2">
         <v>23</v>
       </c>
@@ -17161,7 +17170,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="634" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A634" s="2">
         <v>53</v>
       </c>
@@ -17187,7 +17196,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="635" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A635" s="2">
         <v>18</v>
       </c>
@@ -17213,7 +17222,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="636" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A636" s="2">
         <v>49</v>
       </c>
@@ -17239,7 +17248,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="637" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A637" s="2">
         <v>36</v>
       </c>
@@ -17265,7 +17274,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="638" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A638" s="2">
         <v>50</v>
       </c>
@@ -17291,7 +17300,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="639" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A639" s="2">
         <v>42</v>
       </c>
@@ -17317,7 +17326,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="640" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A640" s="2">
         <v>21</v>
       </c>
@@ -17343,7 +17352,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="641" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A641" s="2">
         <v>13</v>
       </c>
@@ -17369,7 +17378,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="642" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A642" s="2">
         <v>24</v>
       </c>
@@ -17395,7 +17404,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="643" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A643" s="2">
         <v>44</v>
       </c>
@@ -17421,7 +17430,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="644" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A644" s="2">
         <v>16</v>
       </c>
@@ -17447,7 +17456,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="645" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A645" s="2">
         <v>3</v>
       </c>
@@ -17473,7 +17482,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="646" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A646" s="2">
         <v>3</v>
       </c>
@@ -17499,7 +17508,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="647" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A647" s="2">
         <v>27</v>
       </c>
@@ -17525,7 +17534,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="648" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A648" s="2">
         <v>19</v>
       </c>
@@ -17551,7 +17560,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="649" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A649" s="2">
         <v>30</v>
       </c>
@@ -17577,7 +17586,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="650" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A650" s="2">
         <v>56</v>
       </c>
@@ -17603,7 +17612,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="651" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A651" s="2">
         <v>66</v>
       </c>
@@ -17629,7 +17638,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="652" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A652" s="2">
         <v>47</v>
       </c>
@@ -17655,7 +17664,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="653" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A653" s="2">
         <v>44</v>
       </c>
@@ -17681,7 +17690,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="654" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A654" s="2">
         <v>3</v>
       </c>
@@ -17707,7 +17716,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="655" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A655" s="2">
         <v>65</v>
       </c>
@@ -17733,7 +17742,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="656" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A656" s="2">
         <v>18</v>
       </c>
@@ -17759,7 +17768,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="657" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A657" s="2">
         <v>8</v>
       </c>
@@ -17785,7 +17794,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="658" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A658" s="2">
         <v>56</v>
       </c>
@@ -17811,7 +17820,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="659" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A659" s="2">
         <v>58</v>
       </c>
@@ -17837,7 +17846,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="660" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A660" s="2">
         <v>72</v>
       </c>
@@ -17863,7 +17872,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="661" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A661" s="2">
         <v>43</v>
       </c>
@@ -17889,7 +17898,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="662" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A662" s="2">
         <v>60</v>
       </c>
@@ -17915,7 +17924,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="663" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A663" s="2">
         <v>60</v>
       </c>
@@ -17941,7 +17950,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="664" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A664" s="2">
         <v>56</v>
       </c>
@@ -17967,7 +17976,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="665" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A665" s="2">
         <v>50</v>
       </c>
@@ -17993,7 +18002,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="666" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A666" s="2">
         <v>17</v>
       </c>
@@ -18019,7 +18028,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="667" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A667" s="2">
         <v>20</v>
       </c>
@@ -18045,7 +18054,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="668" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A668" s="2">
         <v>57</v>
       </c>
@@ -18071,7 +18080,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="669" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A669" s="2">
         <v>49</v>
       </c>
@@ -18097,7 +18106,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="670" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A670" s="2">
         <v>22</v>
       </c>
@@ -18123,7 +18132,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="671" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A671" s="2">
         <v>16</v>
       </c>
@@ -18149,7 +18158,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="672" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A672" s="2">
         <v>21</v>
       </c>
@@ -18175,7 +18184,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="673" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A673" s="2">
         <v>46</v>
       </c>
@@ -18201,7 +18210,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="674" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A674" s="2">
         <v>10</v>
       </c>
@@ -18227,7 +18236,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="675" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A675" s="2">
         <v>49</v>
       </c>
@@ -18253,7 +18262,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="676" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A676" s="2">
         <v>41</v>
       </c>
@@ -18279,7 +18288,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="677" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A677" s="2">
         <v>35</v>
       </c>
@@ -18305,7 +18314,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="678" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A678" s="2">
         <v>50</v>
       </c>
@@ -18331,7 +18340,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="679" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A679" s="2">
         <v>66</v>
       </c>
@@ -18357,7 +18366,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="680" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A680" s="2">
         <v>51</v>
       </c>
@@ -18383,7 +18392,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="681" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A681" s="2">
         <v>40</v>
       </c>
@@ -18409,7 +18418,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="682" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A682" s="2">
         <v>38</v>
       </c>
@@ -18435,7 +18444,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="683" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A683" s="2">
         <v>33</v>
       </c>
@@ -18461,7 +18470,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="684" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A684" s="2">
         <v>59</v>
       </c>
@@ -18487,7 +18496,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="685" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A685" s="2">
         <v>69</v>
       </c>
@@ -18513,7 +18522,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="686" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A686" s="2">
         <v>38</v>
       </c>
@@ -18539,7 +18548,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="687" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A687" s="2">
         <v>56</v>
       </c>
@@ -18565,7 +18574,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="688" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A688" s="2">
         <v>8</v>
       </c>
@@ -18591,7 +18600,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="689" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A689" s="2">
         <v>45</v>
       </c>
@@ -18617,7 +18626,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="690" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A690" s="2">
         <v>1</v>
       </c>
@@ -18643,7 +18652,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="691" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A691" s="2">
         <v>62</v>
       </c>
@@ -18669,7 +18678,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="692" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A692" s="2">
         <v>52</v>
       </c>
@@ -18695,7 +18704,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="693" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A693" s="2">
         <v>55</v>
       </c>
@@ -18721,7 +18730,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="694" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A694" s="2">
         <v>64</v>
       </c>
@@ -18747,7 +18756,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="695" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A695" s="2">
         <v>57</v>
       </c>
@@ -18773,7 +18782,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="696" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A696" s="2">
         <v>64</v>
       </c>
@@ -18799,7 +18808,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="697" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A697" s="2">
         <v>45</v>
       </c>
@@ -18825,7 +18834,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="698" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A698" s="2">
         <v>52</v>
       </c>
@@ -18851,7 +18860,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="699" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A699" s="2">
         <v>25</v>
       </c>
@@ -18877,7 +18886,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="700" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A700" s="2">
         <v>5</v>
       </c>
@@ -18903,7 +18912,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="701" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A701" s="2">
         <v>68</v>
       </c>
@@ -18929,7 +18938,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="702" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A702" s="2">
         <v>59</v>
       </c>
@@ -18955,7 +18964,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="703" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A703" s="2">
         <v>22</v>
       </c>
@@ -18981,7 +18990,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="704" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A704" s="2">
         <v>47</v>
       </c>
@@ -19007,7 +19016,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="705" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A705" s="2">
         <v>19</v>
       </c>
@@ -19033,7 +19042,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="706" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A706" s="2">
         <v>46</v>
       </c>
@@ -19059,7 +19068,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="707" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A707" s="2">
         <v>33</v>
       </c>
@@ -19085,7 +19094,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="708" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A708" s="2">
         <v>50</v>
       </c>
@@ -19111,7 +19120,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="709" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A709" s="2">
         <v>50</v>
       </c>
@@ -19137,7 +19146,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="710" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A710" s="2">
         <v>20</v>
       </c>
@@ -19163,7 +19172,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="711" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A711" s="2">
         <v>65</v>
       </c>
@@ -19189,7 +19198,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="712" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A712" s="2">
         <v>78</v>
       </c>
@@ -19215,7 +19224,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="713" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A713" s="2">
         <v>36</v>
       </c>
@@ -19241,7 +19250,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="714" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A714" s="2">
         <v>21</v>
       </c>
@@ -19267,7 +19276,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="715" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A715" s="2">
         <v>50</v>
       </c>
@@ -19293,7 +19302,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="716" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A716" s="2">
         <v>76</v>
       </c>
@@ -19319,7 +19328,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="717" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A717" s="2">
         <v>49</v>
       </c>
@@ -19345,7 +19354,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="718" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A718" s="2">
         <v>70</v>
       </c>
@@ -19371,7 +19380,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="719" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A719" s="2">
         <v>69</v>
       </c>
@@ -19397,7 +19406,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="720" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A720" s="2">
         <v>46</v>
       </c>
@@ -19423,7 +19432,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="721" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A721" s="2">
         <v>47</v>
       </c>
@@ -19449,7 +19458,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="722" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A722" s="2">
         <v>80</v>
       </c>
@@ -19475,7 +19484,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="723" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A723" s="2">
         <v>21</v>
       </c>
@@ -19501,7 +19510,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="724" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A724" s="2">
         <v>43</v>
       </c>
@@ -19527,7 +19536,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="725" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A725" s="2">
         <v>51</v>
       </c>
@@ -19553,7 +19562,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="726" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A726" s="2">
         <v>20</v>
       </c>
@@ -19579,7 +19588,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="727" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A727" s="2">
         <v>24</v>
       </c>
@@ -19605,7 +19614,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="728" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A728" s="2">
         <v>46</v>
       </c>
@@ -19631,7 +19640,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="729" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A729" s="2">
         <v>75</v>
       </c>
@@ -19657,7 +19666,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="730" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A730" s="2">
         <v>50</v>
       </c>
@@ -19683,7 +19692,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="731" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A731" s="2">
         <v>50</v>
       </c>
@@ -19709,7 +19718,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="732" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A732" s="2">
         <v>53</v>
       </c>
@@ -19735,7 +19744,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="733" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A733" s="2">
         <v>13</v>
       </c>
@@ -19761,7 +19770,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="734" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A734" s="2">
         <v>36</v>
       </c>
@@ -19787,7 +19796,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="735" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A735" s="2">
         <v>59</v>
       </c>
@@ -19813,7 +19822,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="736" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A736" s="2">
         <v>87</v>
       </c>
@@ -19839,7 +19848,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="737" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A737" s="2">
         <v>58</v>
       </c>
@@ -19865,7 +19874,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="738" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A738" s="2">
         <v>51</v>
       </c>
@@ -19891,7 +19900,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="739" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A739" s="2">
         <v>50</v>
       </c>
@@ -19917,7 +19926,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="740" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A740" s="2">
         <v>19</v>
       </c>
@@ -19943,7 +19952,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="741" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A741" s="2">
         <v>41</v>
       </c>
@@ -19969,7 +19978,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="742" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A742" s="2">
         <v>52</v>
       </c>
@@ -19995,7 +20004,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="743" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A743" s="2">
         <v>17</v>
       </c>
@@ -20021,7 +20030,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="744" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A744" s="2">
         <v>14</v>
       </c>
@@ -20047,7 +20056,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="745" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A745" s="2">
         <v>45</v>
       </c>
@@ -20073,7 +20082,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="746" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A746" s="2">
         <v>20</v>
       </c>
@@ -20099,7 +20108,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="747" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A747" s="2">
         <v>29</v>
       </c>
@@ -20125,7 +20134,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="748" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A748" s="2">
         <v>64</v>
       </c>
@@ -20151,7 +20160,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="749" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A749" s="2">
         <v>64</v>
       </c>
@@ -20177,7 +20186,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="750" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A750" s="2">
         <v>33</v>
       </c>
@@ -20203,7 +20212,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="751" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A751" s="2">
         <v>17</v>
       </c>
@@ -20229,7 +20238,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="752" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A752" s="2">
         <v>19</v>
       </c>
@@ -20255,7 +20264,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="753" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A753" s="2">
         <v>50</v>
       </c>
@@ -20281,7 +20290,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="754" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A754" s="2">
         <v>23</v>
       </c>
@@ -20307,7 +20316,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="755" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A755" s="2">
         <v>20</v>
       </c>
@@ -20333,7 +20342,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="756" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A756" s="2">
         <v>60</v>
       </c>
@@ -20359,7 +20368,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="757" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A757" s="2">
         <v>14</v>
       </c>
@@ -20385,7 +20394,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="758" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A758" s="2">
         <v>34</v>
       </c>
@@ -20411,7 +20420,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="759" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A759" s="2">
         <v>68</v>
       </c>
@@ -20437,7 +20446,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="760" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A760" s="2">
         <v>78</v>
       </c>
@@ -20463,7 +20472,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="761" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A761" s="2">
         <v>35</v>
       </c>
@@ -20489,7 +20498,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="762" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A762" s="2">
         <v>28</v>
       </c>
@@ -20515,7 +20524,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="763" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A763" s="2">
         <v>12</v>
       </c>
@@ -20541,7 +20550,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="764" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A764" s="2">
         <v>76</v>
       </c>
@@ -20567,7 +20576,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="765" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A765" s="2">
         <v>61</v>
       </c>
@@ -20593,7 +20602,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="766" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A766" s="2">
         <v>67</v>
       </c>
@@ -20619,7 +20628,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="767" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A767" s="2">
         <v>36</v>
       </c>
@@ -20645,7 +20654,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="768" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A768" s="2">
         <v>46</v>
       </c>
@@ -20671,7 +20680,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="769" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A769" s="2">
         <v>27</v>
       </c>
@@ -20697,7 +20706,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="770" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A770" s="2">
         <v>15</v>
       </c>
@@ -20723,7 +20732,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="771" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A771" s="2">
         <v>32</v>
       </c>
@@ -20749,7 +20758,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="772" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A772" s="2">
         <v>72</v>
       </c>
@@ -20775,7 +20784,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="773" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A773" s="2">
         <v>68</v>
       </c>
@@ -20801,7 +20810,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="774" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A774" s="2">
         <v>60</v>
       </c>
@@ -20827,7 +20836,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="775" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A775" s="2">
         <v>17</v>
       </c>
@@ -20853,7 +20862,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="776" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A776" s="2">
         <v>59</v>
       </c>
@@ -20879,7 +20888,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="777" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A777" s="2">
         <v>54</v>
       </c>
@@ -20905,7 +20914,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="778" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A778" s="2">
         <v>34</v>
       </c>
@@ -20931,7 +20940,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="779" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A779" s="2">
         <v>77</v>
       </c>
@@ -20957,7 +20966,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="780" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A780" s="2">
         <v>68</v>
       </c>
@@ -20983,7 +20992,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="781" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A781" s="2">
         <v>3</v>
       </c>
@@ -21009,7 +21018,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="782" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A782" s="2">
         <v>71</v>
       </c>
@@ -21035,7 +21044,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="783" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A783" s="2">
         <v>29</v>
       </c>
@@ -21061,7 +21070,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="784" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A784" s="2">
         <v>60</v>
       </c>
@@ -21087,7 +21096,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="785" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A785" s="2">
         <v>35</v>
       </c>
@@ -21113,7 +21122,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="786" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A786" s="2">
         <v>25</v>
       </c>
@@ -21139,7 +21148,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="787" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A787" s="2">
         <v>17</v>
       </c>
@@ -21165,7 +21174,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="788" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A788" s="2">
         <v>27</v>
       </c>
@@ -21191,7 +21200,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="789" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A789" s="2">
         <v>36</v>
       </c>
@@ -21217,7 +21226,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="790" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A790" s="2">
         <v>69</v>
       </c>
@@ -21243,7 +21252,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="791" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A791" s="2">
         <v>29</v>
       </c>
@@ -21269,7 +21278,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="792" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A792" s="2">
         <v>46</v>
       </c>
@@ -21295,7 +21304,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="793" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A793" s="2">
         <v>70</v>
       </c>
@@ -21321,7 +21330,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="794" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A794" s="2">
         <v>62</v>
       </c>
@@ -21347,7 +21356,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="795" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A795" s="2">
         <v>62</v>
       </c>
@@ -21373,7 +21382,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="796" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A796" s="2">
         <v>58</v>
       </c>
@@ -21399,7 +21408,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="797" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A797" s="2">
         <v>65</v>
       </c>
@@ -21425,7 +21434,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="798" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A798" s="2">
         <v>22</v>
       </c>
@@ -21451,7 +21460,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="799" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A799" s="2">
         <v>43</v>
       </c>
@@ -21477,7 +21486,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="800" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A800" s="2">
         <v>42</v>
       </c>
@@ -21503,7 +21512,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="801" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A801" s="2">
         <v>65</v>
       </c>
@@ -21529,7 +21538,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="802" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A802" s="2">
         <v>57</v>
       </c>
@@ -21555,7 +21564,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="803" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A803" s="2">
         <v>65</v>
       </c>
@@ -21581,7 +21590,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="804" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A804" s="2">
         <v>43</v>
       </c>
@@ -21607,7 +21616,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="805" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A805" s="2">
         <v>20</v>
       </c>
@@ -21633,7 +21642,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="806" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A806" s="2">
         <v>43</v>
       </c>
@@ -21659,7 +21668,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="807" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A807" s="2">
         <v>71</v>
       </c>
@@ -21685,7 +21694,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="808" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A808" s="2">
         <v>87</v>
       </c>
@@ -21711,7 +21720,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="809" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A809" s="2">
         <v>56</v>
       </c>
@@ -21737,7 +21746,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="810" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A810" s="2">
         <v>78</v>
       </c>
@@ -21763,7 +21772,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="811" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A811" s="2">
         <v>37</v>
       </c>
@@ -21789,7 +21798,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="812" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A812" s="2">
         <v>58</v>
       </c>
@@ -21815,7 +21824,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="813" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A813" s="2">
         <v>61</v>
       </c>
@@ -21841,7 +21850,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="814" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A814" s="2">
         <v>62</v>
       </c>
@@ -21867,7 +21876,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="815" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A815" s="2">
         <v>51</v>
       </c>
@@ -21893,7 +21902,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="816" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A816" s="2">
         <v>53</v>
       </c>
@@ -21919,7 +21928,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="817" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A817" s="2">
         <v>35</v>
       </c>
@@ -21945,7 +21954,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="818" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A818" s="2">
         <v>16</v>
       </c>
@@ -21971,7 +21980,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="819" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A819" s="2">
         <v>17</v>
       </c>
@@ -21997,7 +22006,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="820" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A820" s="2">
         <v>25</v>
       </c>
@@ -22023,7 +22032,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="821" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A821" s="2">
         <v>43</v>
       </c>
@@ -22049,7 +22058,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="822" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A822" s="2">
         <v>15</v>
       </c>
@@ -22075,7 +22084,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="823" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A823" s="2">
         <v>26</v>
       </c>
@@ -22101,7 +22110,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="824" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A824" s="2">
         <v>51</v>
       </c>
@@ -22127,7 +22136,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="825" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A825" s="2">
         <v>61</v>
       </c>
@@ -22153,7 +22162,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="826" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A826" s="2">
         <v>22</v>
       </c>
@@ -22179,7 +22188,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="827" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A827" s="2">
         <v>18</v>
       </c>
@@ -22205,7 +22214,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="828" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A828" s="2">
         <v>23</v>
       </c>
@@ -22231,7 +22240,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="829" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A829" s="2">
         <v>67</v>
       </c>
@@ -22257,7 +22266,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="830" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A830" s="2">
         <v>69</v>
       </c>
@@ -22283,7 +22292,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="831" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A831" s="2">
         <v>26</v>
       </c>
@@ -22309,7 +22318,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="832" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A832" s="2">
         <v>60</v>
       </c>
@@ -22335,7 +22344,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="833" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A833" s="2">
         <v>13</v>
       </c>
@@ -22361,7 +22370,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="834" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A834" s="2">
         <v>38</v>
       </c>
@@ -22387,7 +22396,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="835" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A835" s="2">
         <v>58</v>
       </c>
@@ -22413,7 +22422,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="836" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A836" s="2">
         <v>52</v>
       </c>
@@ -22439,7 +22448,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="837" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A837" s="2">
         <v>17</v>
       </c>
@@ -22465,7 +22474,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="838" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A838" s="2">
         <v>17</v>
       </c>
@@ -22491,7 +22500,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="839" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A839" s="2">
         <v>30</v>
       </c>
@@ -22517,7 +22526,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="840" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A840" s="2">
         <v>51</v>
       </c>
@@ -22543,7 +22552,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="841" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A841" s="2">
         <v>57</v>
       </c>
@@ -22569,7 +22578,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="842" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A842" s="2">
         <v>79</v>
       </c>
@@ -22595,7 +22604,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="843" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A843" s="2">
         <v>44</v>
       </c>
@@ -22621,7 +22630,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="844" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A844" s="2">
         <v>38</v>
       </c>
@@ -22647,7 +22656,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="845" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A845" s="2">
         <v>44</v>
       </c>
@@ -22673,7 +22682,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="846" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A846" s="2">
         <v>25</v>
       </c>
@@ -22699,7 +22708,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="847" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A847" s="2">
         <v>54</v>
       </c>
@@ -22725,7 +22734,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="848" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A848" s="2">
         <v>16</v>
       </c>
@@ -22751,7 +22760,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="849" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A849" s="2">
         <v>15</v>
       </c>
@@ -22777,7 +22786,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="850" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A850" s="2">
         <v>64</v>
       </c>
@@ -22803,7 +22812,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="851" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A851" s="2">
         <v>31</v>
       </c>
@@ -22829,7 +22838,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="852" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A852" s="2">
         <v>25</v>
       </c>
@@ -22855,7 +22864,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="853" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A853" s="2">
         <v>31</v>
       </c>
@@ -22881,7 +22890,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="854" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A854" s="2">
         <v>57</v>
       </c>
@@ -22907,7 +22916,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="855" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A855" s="2">
         <v>56</v>
       </c>
@@ -22933,7 +22942,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="856" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A856" s="2">
         <v>64</v>
       </c>
@@ -22959,7 +22968,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="857" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A857" s="2">
         <v>20</v>
       </c>
@@ -22985,7 +22994,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="858" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A858" s="2">
         <v>60</v>
       </c>
@@ -23011,7 +23020,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="859" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A859" s="2">
         <v>46</v>
       </c>
@@ -23037,7 +23046,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="860" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A860" s="2">
         <v>65</v>
       </c>
@@ -23063,7 +23072,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="861" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A861" s="2">
         <v>35</v>
       </c>
@@ -23089,7 +23098,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="862" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A862" s="2">
         <v>31</v>
       </c>
@@ -23115,7 +23124,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="863" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A863" s="2">
         <v>71</v>
       </c>
@@ -23141,7 +23150,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="864" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A864" s="2">
         <v>72</v>
       </c>
@@ -23167,7 +23176,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="865" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A865" s="2">
         <v>50</v>
       </c>
@@ -23193,7 +23202,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="866" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A866" s="2">
         <v>11</v>
       </c>
@@ -23219,7 +23228,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="867" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A867" s="2">
         <v>38</v>
       </c>
@@ -23245,7 +23254,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="868" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A868" s="2">
         <v>16</v>
       </c>
@@ -23271,7 +23280,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="869" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A869" s="2">
         <v>2</v>
       </c>
@@ -23297,7 +23306,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="870" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A870" s="2">
         <v>30</v>
       </c>
@@ -23323,7 +23332,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="871" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A871" s="2">
         <v>17</v>
       </c>
@@ -23349,7 +23358,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="872" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A872" s="2">
         <v>52</v>
       </c>
@@ -23375,7 +23384,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="873" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A873" s="2">
         <v>61</v>
       </c>
@@ -23401,7 +23410,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="874" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A874" s="2">
         <v>49</v>
       </c>
@@ -23427,7 +23436,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="875" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A875" s="2">
         <v>15</v>
       </c>
@@ -23453,7 +23462,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="876" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A876" s="2">
         <v>66</v>
       </c>
@@ -23479,7 +23488,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="877" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A877" s="2">
         <v>26</v>
       </c>
@@ -23505,7 +23514,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="878" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A878" s="2">
         <v>21</v>
       </c>
@@ -23531,7 +23540,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="879" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A879" s="2">
         <v>11</v>
       </c>
@@ -23557,7 +23566,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="880" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A880" s="2">
         <v>34</v>
       </c>
@@ -23583,7 +23592,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="881" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A881" s="2">
         <v>3</v>
       </c>
@@ -23609,7 +23618,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="882" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A882" s="2">
         <v>13</v>
       </c>
@@ -23635,7 +23644,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="883" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A883" s="2">
         <v>47</v>
       </c>
@@ -23661,7 +23670,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="884" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A884" s="2">
         <v>43</v>
       </c>
@@ -23687,7 +23696,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="885" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A885" s="2">
         <v>24</v>
       </c>
@@ -23713,7 +23722,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="886" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A886" s="2">
         <v>44</v>
       </c>
@@ -23739,7 +23748,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="887" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A887" s="2">
         <v>32</v>
       </c>
@@ -23765,7 +23774,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="888" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A888" s="2">
         <v>51</v>
       </c>
@@ -23791,7 +23800,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="889" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A889" s="2">
         <v>55</v>
       </c>
@@ -23817,7 +23826,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="890" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A890" s="2">
         <v>56</v>
       </c>
@@ -23843,7 +23852,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="891" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A891" s="2">
         <v>56</v>
       </c>
@@ -23869,7 +23878,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="892" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A892" s="2">
         <v>37</v>
       </c>
@@ -23895,7 +23904,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="893" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A893" s="2">
         <v>15</v>
       </c>
@@ -23921,7 +23930,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="894" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A894" s="2">
         <v>34</v>
       </c>
@@ -23947,7 +23956,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="895" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A895" s="2">
         <v>68</v>
       </c>
@@ -23973,7 +23982,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="896" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A896" s="2">
         <v>55</v>
       </c>
@@ -23999,7 +24008,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="897" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A897" s="2">
         <v>50</v>
       </c>
@@ -24025,7 +24034,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="898" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A898" s="2">
         <v>37</v>
       </c>
@@ -24051,7 +24060,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="899" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A899" s="2">
         <v>14</v>
       </c>
@@ -24077,7 +24086,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="900" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A900" s="2">
         <v>17</v>
       </c>
@@ -24103,7 +24112,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="901" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A901" s="2">
         <v>70</v>
       </c>
@@ -24129,7 +24138,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="902" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A902" s="2">
         <v>29</v>
       </c>
@@ -24155,7 +24164,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="903" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A903" s="2">
         <v>53</v>
       </c>
@@ -24181,7 +24190,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="904" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A904" s="2">
         <v>55</v>
       </c>
@@ -24207,7 +24216,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="905" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A905" s="2">
         <v>69</v>
       </c>
@@ -24233,7 +24242,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="906" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A906" s="2">
         <v>64</v>
       </c>
@@ -24259,7 +24268,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="907" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A907" s="2">
         <v>18</v>
       </c>
@@ -24285,7 +24294,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="908" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A908" s="2">
         <v>20</v>
       </c>
@@ -24311,7 +24320,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="909" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A909" s="2">
         <v>21</v>
       </c>
@@ -24337,7 +24346,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="910" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A910" s="2">
         <v>58</v>
       </c>
@@ -24363,7 +24372,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="911" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A911" s="2">
         <v>19</v>
       </c>
@@ -24389,7 +24398,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="912" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A912" s="2">
         <v>54</v>
       </c>
@@ -24415,7 +24424,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="913" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A913" s="2">
         <v>69</v>
       </c>
@@ -24441,7 +24450,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="914" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A914" s="2">
         <v>21</v>
       </c>
@@ -24467,7 +24476,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="915" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A915" s="2">
         <v>23</v>
       </c>
@@ -24493,7 +24502,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="916" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A916" s="2">
         <v>29</v>
       </c>
@@ -24519,7 +24528,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="917" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A917" s="2">
         <v>19</v>
       </c>
@@ -24545,7 +24554,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="918" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A918" s="2">
         <v>41</v>
       </c>
@@ -24571,7 +24580,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="919" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A919" s="2">
         <v>16</v>
       </c>
@@ -24597,7 +24606,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="920" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A920" s="2">
         <v>58</v>
       </c>
@@ -24623,7 +24632,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="921" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A921" s="2">
         <v>59</v>
       </c>
@@ -24649,7 +24658,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="922" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A922" s="2">
         <v>36</v>
       </c>
@@ -24675,7 +24684,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="923" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A923" s="2">
         <v>13</v>
       </c>
@@ -24701,7 +24710,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="924" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A924" s="2">
         <v>55</v>
       </c>
@@ -24727,7 +24736,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="925" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A925" s="2">
         <v>66</v>
       </c>
@@ -24753,7 +24762,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="926" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A926" s="2">
         <v>6</v>
       </c>
@@ -24779,7 +24788,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="927" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A927" s="2">
         <v>10</v>
       </c>
@@ -24805,7 +24814,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="928" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A928" s="2">
         <v>51</v>
       </c>
@@ -24831,7 +24840,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="929" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A929" s="2">
         <v>49</v>
       </c>
@@ -24857,7 +24866,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="930" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A930" s="2">
         <v>24</v>
       </c>
@@ -24883,7 +24892,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="931" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A931" s="2">
         <v>47</v>
       </c>
@@ -24909,7 +24918,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="932" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A932" s="2">
         <v>19</v>
       </c>
@@ -24935,7 +24944,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="933" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A933" s="2">
         <v>53</v>
       </c>
@@ -24961,7 +24970,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="934" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A934" s="2">
         <v>60</v>
       </c>
@@ -24987,7 +24996,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="935" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A935" s="2">
         <v>29</v>
       </c>
@@ -25013,7 +25022,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="936" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A936" s="2">
         <v>31</v>
       </c>
@@ -25039,7 +25048,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="937" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A937" s="2">
         <v>46</v>
       </c>
@@ -25065,7 +25074,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="938" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A938" s="2">
         <v>59</v>
       </c>
@@ -25091,7 +25100,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="939" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A939" s="2">
         <v>65</v>
       </c>
@@ -25117,7 +25126,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="940" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A940" s="2">
         <v>4</v>
       </c>
@@ -25143,7 +25152,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="941" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A941" s="2">
         <v>34</v>
       </c>
@@ -25169,7 +25178,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="942" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A942" s="2">
         <v>16</v>
       </c>
@@ -25195,7 +25204,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="943" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A943" s="2">
         <v>52</v>
       </c>
@@ -25221,7 +25230,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="944" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A944" s="2">
         <v>64</v>
       </c>
@@ -25247,7 +25256,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="945" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A945" s="2">
         <v>54</v>
       </c>
@@ -25273,7 +25282,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="946" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A946" s="2">
         <v>32</v>
       </c>
@@ -25299,7 +25308,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="947" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A947" s="2">
         <v>70</v>
       </c>
@@ -25325,7 +25334,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="948" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A948" s="2">
         <v>40</v>
       </c>
@@ -25351,7 +25360,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="949" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A949" s="2">
         <v>70</v>
       </c>
@@ -25377,7 +25386,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="950" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A950" s="2">
         <v>28</v>
       </c>
@@ -25403,7 +25412,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="951" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A951" s="2">
         <v>54</v>
       </c>
@@ -25429,7 +25438,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="952" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A952" s="2">
         <v>23</v>
       </c>
@@ -25455,7 +25464,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="953" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A953" s="2">
         <v>56</v>
       </c>
@@ -25481,7 +25490,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="954" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A954" s="2">
         <v>55</v>
       </c>
@@ -25507,7 +25516,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="955" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A955" s="2">
         <v>69</v>
       </c>
@@ -25533,7 +25542,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="956" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A956" s="2">
         <v>43</v>
       </c>
@@ -25559,7 +25568,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="957" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A957" s="2">
         <v>66</v>
       </c>
@@ -25585,7 +25594,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="958" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A958" s="2">
         <v>41</v>
       </c>
@@ -25611,7 +25620,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="959" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A959" s="2">
         <v>44</v>
       </c>
@@ -25637,7 +25646,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="960" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A960" s="2">
         <v>46</v>
       </c>
@@ -25663,7 +25672,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="961" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A961" s="2">
         <v>42</v>
       </c>
@@ -25689,7 +25698,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="962" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A962" s="2">
         <v>54</v>
       </c>
@@ -25715,7 +25724,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="963" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A963" s="2">
         <v>11</v>
       </c>
@@ -25741,7 +25750,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="964" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A964" s="2">
         <v>46</v>
       </c>
@@ -25767,7 +25776,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="965" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A965" s="2">
         <v>21</v>
       </c>
@@ -25793,7 +25802,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="966" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A966" s="2">
         <v>62</v>
       </c>
@@ -25819,7 +25828,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="967" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A967" s="2">
         <v>49</v>
       </c>
@@ -25845,7 +25854,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="968" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A968" s="2">
         <v>61</v>
       </c>
@@ -25871,7 +25880,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="969" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A969" s="2">
         <v>46</v>
       </c>
@@ -25897,7 +25906,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="970" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A970" s="2">
         <v>56</v>
       </c>
@@ -25923,7 +25932,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="971" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A971" s="2">
         <v>21</v>
       </c>
@@ -25949,7 +25958,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="972" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A972" s="2">
         <v>28</v>
       </c>
@@ -25975,7 +25984,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="973" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A973" s="2">
         <v>39</v>
       </c>
@@ -26001,7 +26010,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="974" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A974" s="2">
         <v>26</v>
       </c>
@@ -26027,7 +26036,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="975" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A975" s="2">
         <v>1</v>
       </c>
@@ -26053,7 +26062,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="976" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A976" s="2">
         <v>57</v>
       </c>
@@ -26079,7 +26088,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="977" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A977" s="2">
         <v>24</v>
       </c>
@@ -26105,7 +26114,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="978" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A978" s="2">
         <v>61</v>
       </c>
@@ -26131,7 +26140,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="979" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A979" s="2">
         <v>44</v>
       </c>
@@ -26157,7 +26166,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="980" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A980" s="2">
         <v>31</v>
       </c>
@@ -26183,7 +26192,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="981" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A981" s="2">
         <v>16</v>
       </c>
@@ -26209,7 +26218,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="982" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A982" s="2">
         <v>53</v>
       </c>
@@ -26235,7 +26244,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="983" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A983" s="2">
         <v>17</v>
       </c>
@@ -26261,7 +26270,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="984" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A984" s="2">
         <v>16</v>
       </c>
@@ -26287,7 +26296,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="985" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A985" s="2">
         <v>69</v>
       </c>
@@ -26313,7 +26322,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="986" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:8" ht="14" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A986" s="2">
         <v>68</v>
       </c>
